--- a/Week 1/Weekly Report 1.xlsx
+++ b/Week 1/Weekly Report 1.xlsx
@@ -1524,8 +1524,8 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Week 1/Weekly Report 1.xlsx
+++ b/Week 1/Weekly Report 1.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -397,9 +397,6 @@
   </si>
   <si>
     <t>13/09/2021-17/09/2021</t>
-  </si>
-  <si>
-    <t>Recording Link</t>
   </si>
   <si>
     <t>Memtor</t>
@@ -1521,11 +1518,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:G24"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1536,8 +1533,7 @@
     <col min="4" max="4" width="53.5" style="30" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="30" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="30" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="30" customWidth="1"/>
-    <col min="8" max="16384" width="7.75" style="30"/>
+    <col min="7" max="16384" width="7.75" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1576,7 +1572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>1</v>
       </c>
@@ -1687,7 +1683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>1</v>
       </c>
@@ -1697,13 +1693,13 @@
       <c r="C17" s="47"/>
       <c r="D17" s="48"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>17</v>
       </c>
@@ -1711,7 +1707,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>5</v>
       </c>
@@ -1728,18 +1724,15 @@
         <v>45</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="50" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="51">
         <v>1</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>47</v>
@@ -1748,16 +1741,13 @@
         <v>50</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="51">
         <v>2</v>
       </c>
@@ -1768,67 +1758,62 @@
         <v>51</v>
       </c>
       <c r="D22" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="52"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="51">
         <v>3</v>
       </c>
       <c r="B23" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="D23" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="E23" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="52"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51">
         <v>4</v>
       </c>
       <c r="B24" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="D24" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="E24" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
         <v>18</v>
       </c>
@@ -1836,7 +1821,7 @@
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>5</v>
       </c>
@@ -1850,7 +1835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>1</v>
       </c>
@@ -1860,53 +1845,51 @@
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-    </row>
-    <row r="30" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
     </row>
-    <row r="31" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
       <c r="D31" s="40"/>
     </row>
-    <row r="32" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
     </row>
-    <row r="33" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
       <c r="D33" s="40"/>
     </row>
-    <row r="34" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
       <c r="D34" s="40"/>
     </row>
-    <row r="35" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1916,14 +1899,12 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E21" r:id="rId1" display="https://meet.google.com/jkv-kzzb-qpj?"/>
-    <hyperlink ref="G21" r:id="rId2" display="https://drive.google.com/file/d/1PlaEs3T6klosTvb5vdVgfeqM70eh7qKy/view"/>
-    <hyperlink ref="E22" r:id="rId3" display="https://meet.google.com/jkv-kzzb-qpj"/>
-    <hyperlink ref="E23" r:id="rId4" display="https://meet.google.com/jkv-kzzb-qpj?authuser=1&amp;fbclid=IwAR2wsQGLgDg1amNYDRCuc2agnj4lzH0DvLIvqRDUmK1437JGBDgmyHhUv3g"/>
-    <hyperlink ref="E24" r:id="rId5" display="https://meet.google.com/jkv-kzzb-qpj"/>
-    <hyperlink ref="G24" r:id="rId6"/>
+    <hyperlink ref="E22" r:id="rId2" display="https://meet.google.com/jkv-kzzb-qpj"/>
+    <hyperlink ref="E23" r:id="rId3" display="https://meet.google.com/jkv-kzzb-qpj?authuser=1&amp;fbclid=IwAR2wsQGLgDg1amNYDRCuc2agnj4lzH0DvLIvqRDUmK1437JGBDgmyHhUv3g"/>
+    <hyperlink ref="E24" r:id="rId4" display="https://meet.google.com/jkv-kzzb-qpj"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>